--- a/AE Zaid/Bagerhat/2022-23/Protective Work Design/Design Volume From Fieldcalcualted_result.xlsx
+++ b/AE Zaid/Bagerhat/2022-23/Protective Work Design/Design Volume From Fieldcalcualted_result.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Design-8\Designs_All\AE Zaid\Bagerhat\2022-23\Protective Work Design\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="dpp_estimate" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -96,7 +91,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -217,7 +212,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,7 +247,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,13 +459,14 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B18:B19"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.88671875" customWidth="1"/>
-    <col min="13" max="13" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -518,31 +514,32 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>129.4</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>2588</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>3752.6</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>1174.8119999999999</v>
       </c>
-      <c r="H2">
-        <v>3802.03</v>
-      </c>
-      <c r="I2">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2">
+        <v>3802.03</v>
+      </c>
+      <c r="I2" s="2">
         <v>9839653.6400000006</v>
       </c>
-      <c r="J2">
-        <v>18294</v>
-      </c>
-      <c r="K2">
+      <c r="J2" s="2">
+        <v>18294</v>
+      </c>
+      <c r="K2" s="2">
         <v>68650064.400000006</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <v>4437.3</v>
       </c>
       <c r="M2" s="2">
@@ -556,31 +553,32 @@
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>55.69</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>779.66</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>1615.01</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>353.2</v>
       </c>
-      <c r="H3">
-        <v>3802.03</v>
-      </c>
-      <c r="I3">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2">
+        <v>3802.03</v>
+      </c>
+      <c r="I3" s="2">
         <v>2964290.7097999998</v>
       </c>
-      <c r="J3">
-        <v>18294</v>
-      </c>
-      <c r="K3">
+      <c r="J3" s="2">
+        <v>18294</v>
+      </c>
+      <c r="K3" s="2">
         <v>29544992.940000001</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>4437.3</v>
       </c>
       <c r="M3" s="2">
@@ -594,31 +592,32 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>67.040000000000006</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>972.08</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>1340.8</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>700.48</v>
       </c>
-      <c r="H4">
-        <v>3802.03</v>
-      </c>
-      <c r="I4">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
+        <v>3802.03</v>
+      </c>
+      <c r="I4" s="2">
         <v>3695877.3223999999</v>
       </c>
-      <c r="J4">
-        <v>18294</v>
-      </c>
-      <c r="K4">
+      <c r="J4" s="2">
+        <v>18294</v>
+      </c>
+      <c r="K4" s="2">
         <v>24528595.199999999</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>4437.3</v>
       </c>
       <c r="M4" s="2">
@@ -632,31 +631,32 @@
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>25</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>256.25</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>400</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>3802.03</v>
-      </c>
-      <c r="I5">
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2">
+        <v>3802.03</v>
+      </c>
+      <c r="I5" s="2">
         <v>974270.1875</v>
       </c>
-      <c r="J5">
-        <v>18294</v>
-      </c>
-      <c r="K5">
+      <c r="J5" s="2">
+        <v>18294</v>
+      </c>
+      <c r="K5" s="2">
         <v>7317600</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>4437.3</v>
       </c>
       <c r="M5" s="2">
@@ -670,31 +670,32 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>42.26</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>422.6</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>845.19999999999993</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>316.54000000000002</v>
       </c>
-      <c r="H6">
-        <v>3802.03</v>
-      </c>
-      <c r="I6">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <v>3802.03</v>
+      </c>
+      <c r="I6" s="2">
         <v>1606737.878</v>
       </c>
-      <c r="J6">
-        <v>18294</v>
-      </c>
-      <c r="K6">
+      <c r="J6" s="2">
+        <v>18294</v>
+      </c>
+      <c r="K6" s="2">
         <v>15462088.800000001</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>4437.3</v>
       </c>
       <c r="M6" s="2">
@@ -708,31 +709,32 @@
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>500</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>11000</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>7500</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>5000</v>
       </c>
-      <c r="H7">
-        <v>3802.03</v>
-      </c>
-      <c r="I7">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
+        <v>3802.03</v>
+      </c>
+      <c r="I7" s="2">
         <v>41822330</v>
       </c>
-      <c r="J7">
-        <v>18294</v>
-      </c>
-      <c r="K7">
+      <c r="J7" s="2">
+        <v>18294</v>
+      </c>
+      <c r="K7" s="2">
         <v>137205000</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>4437.3</v>
       </c>
       <c r="M7" s="2">
@@ -746,31 +748,32 @@
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>500</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>7500</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>7500</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>10250</v>
       </c>
-      <c r="H8">
-        <v>3802.03</v>
-      </c>
-      <c r="I8">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <v>3802.03</v>
+      </c>
+      <c r="I8" s="2">
         <v>28515225</v>
       </c>
-      <c r="J8">
-        <v>18294</v>
-      </c>
-      <c r="K8">
+      <c r="J8" s="2">
+        <v>18294</v>
+      </c>
+      <c r="K8" s="2">
         <v>137205000</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <v>4437.3</v>
       </c>
       <c r="M8" s="2">
@@ -784,31 +787,32 @@
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>60</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
         <v>240</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>3802.03</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>18294</v>
-      </c>
-      <c r="K9">
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
+        <v>3802.03</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>18294</v>
+      </c>
+      <c r="K9" s="2">
         <v>4390560</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <v>4437.3</v>
       </c>
       <c r="M9" s="2">
@@ -822,31 +826,32 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>1500</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>33000</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>23250</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>18495</v>
       </c>
-      <c r="H10">
-        <v>3802.03</v>
-      </c>
-      <c r="I10">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
+        <v>3802.03</v>
+      </c>
+      <c r="I10" s="2">
         <v>125466990</v>
       </c>
-      <c r="J10">
-        <v>18294</v>
-      </c>
-      <c r="K10">
+      <c r="J10" s="2">
+        <v>18294</v>
+      </c>
+      <c r="K10" s="2">
         <v>425335500</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <v>4437.3</v>
       </c>
       <c r="M10" s="2">
@@ -860,31 +865,32 @@
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>2000</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>59000</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>44000</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>28040</v>
       </c>
-      <c r="H11">
-        <v>3802.03</v>
-      </c>
-      <c r="I11">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
+        <v>3802.03</v>
+      </c>
+      <c r="I11" s="2">
         <v>224319770</v>
       </c>
-      <c r="J11">
-        <v>18294</v>
-      </c>
-      <c r="K11">
+      <c r="J11" s="2">
+        <v>18294</v>
+      </c>
+      <c r="K11" s="2">
         <v>804936000</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <v>4437.3</v>
       </c>
       <c r="M11" s="2">
@@ -898,31 +904,32 @@
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>2500</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>66250</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>55000</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>25000</v>
       </c>
-      <c r="H12">
-        <v>3802.03</v>
-      </c>
-      <c r="I12">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2">
+        <v>3802.03</v>
+      </c>
+      <c r="I12" s="2">
         <v>251884487.5</v>
       </c>
-      <c r="J12">
-        <v>18294</v>
-      </c>
-      <c r="K12">
+      <c r="J12" s="2">
+        <v>18294</v>
+      </c>
+      <c r="K12" s="2">
         <v>1006170000</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <v>4437.3</v>
       </c>
       <c r="M12" s="2">
@@ -936,31 +943,32 @@
       <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>20</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
         <v>80</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>3802.03</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>18294</v>
-      </c>
-      <c r="K13">
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
+        <v>3802.03</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>18294</v>
+      </c>
+      <c r="K13" s="2">
         <v>1463520</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <v>4437.3</v>
       </c>
       <c r="M13" s="2">
@@ -974,31 +982,32 @@
       <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>2300</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>67850</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>50600</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>25783</v>
       </c>
-      <c r="H14">
-        <v>3802.03</v>
-      </c>
-      <c r="I14">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2">
+        <v>3802.03</v>
+      </c>
+      <c r="I14" s="2">
         <v>257967735.5</v>
       </c>
-      <c r="J14">
-        <v>18294</v>
-      </c>
-      <c r="K14">
+      <c r="J14" s="2">
+        <v>18294</v>
+      </c>
+      <c r="K14" s="2">
         <v>925676400</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
         <v>4437.3</v>
       </c>
       <c r="M14" s="2">
@@ -1012,31 +1021,32 @@
       <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>1000</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>29500</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>22000</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>12330</v>
       </c>
-      <c r="H15">
-        <v>3802.03</v>
-      </c>
-      <c r="I15">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
+        <v>3802.03</v>
+      </c>
+      <c r="I15" s="2">
         <v>112159885</v>
       </c>
-      <c r="J15">
-        <v>18294</v>
-      </c>
-      <c r="K15">
+      <c r="J15" s="2">
+        <v>18294</v>
+      </c>
+      <c r="K15" s="2">
         <v>402468000</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="2">
         <v>4437.3</v>
       </c>
       <c r="M15" s="2">
